--- a/inputs/parametros.xlsx
+++ b/inputs/parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgomezdelarosa\quetzal_quartz\Santo Domingo\quetzal_santo_domingo\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qchasserieau\quetzal_quartz\quetzal_santo_domingo\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16908336-217E-438C-94FC-D3A64D0F035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D0962A-F021-42DF-B93B-905AB429874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="8110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="95">
   <si>
     <t>general</t>
   </si>
@@ -271,13 +271,58 @@
   </si>
   <si>
     <t>PARAMETROS DE OFERTA TP</t>
+  </si>
+  <si>
+    <t>opret</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>intermodal</t>
+  </si>
+  <si>
+    <t>multimodal</t>
+  </si>
+  <si>
+    <t>monomodal</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>fn, opret</t>
+  </si>
+  <si>
+    <t>f0, f1, f2, f3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +453,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,7 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -811,6 +870,11 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,22 +1236,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1200,14 +1264,23 @@
       <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1293,17 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1317,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1263,13 +1345,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1365,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1294,13 +1376,13 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1310,8 +1392,20 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1321,8 +1415,20 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1332,784 +1438,1109 @@
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10</v>
+      </c>
+      <c r="D20" s="13">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>80</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C30">
         <v>25</v>
       </c>
-      <c r="D21">
+      <c r="D30">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C31">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D31">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="13">
+        <f>C27</f>
+        <v>1000</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" ref="D33:G33" si="0">D27</f>
+        <v>25</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" ref="C34:G36" si="1">MIN(C$29,C33+C$28)</f>
+        <v>1000</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="13">
+        <f>C29</f>
+        <v>1000</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" ref="D37:G37" si="2">D29</f>
+        <v>100</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
         <v>20</v>
       </c>
-      <c r="D23">
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="D53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>180</v>
+      </c>
+      <c r="D61">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>180</v>
+      </c>
+      <c r="D63">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="C64">
+        <v>180</v>
+      </c>
+      <c r="D64">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>300</v>
+      </c>
+      <c r="D66">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C67">
+        <v>300</v>
+      </c>
+      <c r="D67">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="D71" t="s">
         <v>33</v>
       </c>
-      <c r="C41">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42">
-        <v>25</v>
-      </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44">
-        <v>15</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45">
-        <v>18</v>
-      </c>
-      <c r="D45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>180</v>
-      </c>
-      <c r="D46">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47">
-        <v>300</v>
-      </c>
-      <c r="D47">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
         <v>33</v>
       </c>
-      <c r="C48">
-        <v>180</v>
-      </c>
-      <c r="D48">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49">
-        <v>180</v>
-      </c>
-      <c r="D49">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51">
-        <v>300</v>
-      </c>
-      <c r="D51">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52">
-        <v>300</v>
-      </c>
-      <c r="D52">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
         <v>33</v>
       </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C78" t="s">
         <v>42</v>
@@ -2118,40 +2549,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
         <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -2160,26 +2591,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -2188,222 +2619,433 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="7" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="7" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C102" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="7" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C103" t="s">
         <v>34</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="7" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="7" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="7" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="7" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C95">
+      <c r="C110">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="10" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C96">
+      <c r="C111">
         <v>2000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="10" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C97">
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="D97">
+      <c r="D112">
         <v>3.4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="10" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C98">
+      <c r="C113">
         <v>4</v>
       </c>
-      <c r="D98">
+      <c r="D113">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="10" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C99">
+      <c r="C114">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="10" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C100">
+      <c r="C115">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="10" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C101">
+      <c r="C116">
         <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/inputs/parametros.xlsx
+++ b/inputs/parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qchasserieau\quetzal_quartz\quetzal_santo_domingo\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgomezdelarosa\quetzal_quartz\Santo Domingo\quetzal_santo_domingo\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D0962A-F021-42DF-B93B-905AB429874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CCE2AC-8F04-4B04-B70E-ABCED33759AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="8110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
   <si>
     <t>general</t>
   </si>
@@ -279,15 +279,6 @@
     <t>f0</t>
   </si>
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
@@ -312,17 +303,20 @@
     <t>fn</t>
   </si>
   <si>
-    <t>fn, opret</t>
-  </si>
-  <si>
-    <t>f0, f1, f2, f3</t>
+    <t>f0, opret</t>
+  </si>
+  <si>
+    <t>f0, f1, f2, f3, f4, f5, opret</t>
+  </si>
+  <si>
+    <t>f0, f1, f2, f3, f4, f5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,14 +453,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -870,11 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1236,22 +1217,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1265,22 +1247,22 @@
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1299,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1345,13 +1327,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1347,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1376,13 +1358,13 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1451,1138 +1433,1023 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2</v>
-      </c>
-      <c r="G18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="13">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13">
-        <v>3</v>
-      </c>
-      <c r="F19" s="13">
-        <v>3</v>
-      </c>
-      <c r="G19" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="D20" s="13">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
         <v>80</v>
       </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
       <c r="E29">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
         <v>20</v>
       </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
       <c r="D30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>50</v>
-      </c>
-      <c r="E32">
-        <v>50</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="13">
-        <f>C27</f>
-        <v>1000</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" ref="D33:G33" si="0">D27</f>
-        <v>25</v>
-      </c>
-      <c r="E33" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G33" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="13">
-        <f t="shared" ref="C34:G36" si="1">MIN(C$29,C33+C$28)</f>
-        <v>1000</v>
-      </c>
-      <c r="D34" s="13">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="13">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E35" s="13">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="F37" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="13">
-        <f>C29</f>
-        <v>1000</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" ref="D37:G37" si="2">D29</f>
-        <v>100</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <v>20</v>
-      </c>
-      <c r="F38">
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>15</v>
-      </c>
-      <c r="G39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>30</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="G41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
         <v>22</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
         <v>22</v>
       </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>300</v>
+      </c>
+      <c r="D52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="D54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>300</v>
+      </c>
+      <c r="D56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
         <v>33</v>
       </c>
-      <c r="C56">
-        <v>32</v>
-      </c>
-      <c r="D56">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
         <v>25</v>
       </c>
-      <c r="C57">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
         <v>25</v>
       </c>
-      <c r="D57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58">
-        <v>22</v>
-      </c>
-      <c r="D58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
         <v>23</v>
       </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60">
-        <v>18</v>
-      </c>
-      <c r="D60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61">
-        <v>180</v>
-      </c>
-      <c r="D61">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62">
-        <v>300</v>
-      </c>
-      <c r="D62">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63">
-        <v>180</v>
-      </c>
-      <c r="D63">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>180</v>
-      </c>
-      <c r="D64">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65">
-        <v>25</v>
-      </c>
-      <c r="D65">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" t="s">
         <v>23</v>
       </c>
-      <c r="C66">
-        <v>300</v>
-      </c>
-      <c r="D66">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67">
-        <v>300</v>
-      </c>
-      <c r="D67">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
         <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -2591,54 +2458,54 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
       </c>
       <c r="D83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
         <v>42</v>
@@ -2647,40 +2514,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
         <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
@@ -2689,12 +2556,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
@@ -2703,344 +2570,204 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
         <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
         <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
         <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C110">
+      <c r="C100">
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="10" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C111">
+      <c r="C101">
         <v>2000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="10" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C112">
+      <c r="C102">
         <v>3</v>
       </c>
-      <c r="D112">
+      <c r="D102">
         <v>3.4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="10" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C113">
+      <c r="C103">
         <v>4</v>
       </c>
-      <c r="D113">
+      <c r="D103">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="10" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C114">
+      <c r="C104">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="10" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C115">
+      <c r="C105">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="10" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C116">
+      <c r="C106">
         <v>300</v>
       </c>
     </row>
